--- a/scratch/CWL/wf_touch.cwl.job_templ.xlsx
+++ b/scratch/CWL/wf_touch.cwl.job_templ.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="parameters" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="configs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="config" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24,7 +24,7 @@
     <t>filename</t>
   </si>
   <si>
-    <t># CWL: config</t>
+    <t># type: config</t>
   </si>
   <si>
     <t>parameter_name</t>

--- a/scratch/CWL/wf_touch.cwl.job_templ.xlsx
+++ b/scratch/CWL/wf_touch.cwl.job_templ.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="parameters" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="global single values" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="config" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t># CWL: vertical</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t># type: param| format: vertical</t>
   </si>
   <si>
     <t>filename</t>
+  </si>
+  <si>
+    <t>Please fill</t>
   </si>
   <si>
     <t># type: config</t>
@@ -433,7 +436,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s"/>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -454,57 +459,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +517,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s"/>
       <c r="G3" t="s"/>
@@ -534,7 +539,7 @@
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
